--- a/MySQL问题跟踪.xlsx
+++ b/MySQL问题跟踪.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Aborted clients</t>
   </si>
@@ -176,6 +176,134 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.11.16点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.1k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.6M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>461.9M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.9k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.8k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>626.8k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168.2k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.9k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.23.12点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>236.5k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113.7M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.8k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.8k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167.2k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5.17点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>392.3k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207.4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.1k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.8k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.6k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.4k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,20 +663,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32.125" customWidth="1"/>
-    <col min="2" max="3" width="15.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="159.25" style="1" customWidth="1"/>
+    <col min="2" max="6" width="15.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="159.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -559,10 +687,19 @@
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -572,11 +709,20 @@
       <c r="C2" s="1">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1">
+        <v>455</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -587,10 +733,19 @@
         <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -601,10 +756,19 @@
         <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1">
+    <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -615,10 +779,19 @@
         <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -628,11 +801,20 @@
       <c r="C6" s="3">
         <v>126</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>184</v>
+      </c>
+      <c r="E6" s="3">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3">
+        <v>121</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -643,10 +825,19 @@
         <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -656,11 +847,20 @@
       <c r="C8" s="1">
         <v>168</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>174</v>
+      </c>
+      <c r="E8" s="1">
+        <v>231</v>
+      </c>
+      <c r="F8" s="1">
+        <v>243</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -671,10 +871,19 @@
         <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -685,10 +894,19 @@
         <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -698,11 +916,20 @@
       <c r="C11" s="1">
         <v>258</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="1">
+        <v>281</v>
+      </c>
+      <c r="E11" s="1">
+        <v>725</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -710,10 +937,19 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -722,10 +958,19 @@
         <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -735,11 +980,20 @@
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1">
+        <v>533</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1">
+    <row r="15" spans="1:7" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -750,10 +1004,19 @@
         <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -763,7 +1026,16 @@
       <c r="C16" s="3">
         <v>90</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="3">
+        <v>135</v>
+      </c>
+      <c r="E16" s="3">
+        <v>529</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
